--- a/data/statistic_results/sentiment_耀典.xlsx
+++ b/data/statistic_results/sentiment_耀典.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.919320718673404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9830483289198373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8632012230117294</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1077753333677749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9981497049784493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8872709398393488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9862067695949659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8104149343336045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.09203687861749676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6075595288653886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.8439886424500611</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.05609177156008527</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7679765739194757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8034108937487956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.934142672344539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6889919611744135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8228476301878538</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9814294457620625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.9714263890498114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.3000682382489535</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9993322066581733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9321784694954589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7975809142309958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9999851737083243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.896681951976158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9625536124412402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.8185258137993567</v>
+        <v>0.4092629068996784</v>
       </c>
     </row>
     <row r="29">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.480330509984713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.9110987549548402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9113948115310204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.9567252672394044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8281113131657594</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01409163093389565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.3601668888474563</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.3232840003811881</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.9488906373919135</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.6236459879374667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9999122154020004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8817552378609239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1884576434444536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.979285818314882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.725700253353976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.9998371051525452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.6283264115989666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.9996043308232807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.998427746791553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.9302655755348423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.7258919645008792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.3138364699906895</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.995169758755212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.5579438880964296</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-0.9999866307753191</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-0.004700260038169368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.8473481661165196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-0.07878214269500683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.9768724565816143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-0.6794004658584076</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.5401296487693263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.6713697573467956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-0.03926524420728605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.76220475584692</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="63">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.999962258910615</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.9984805926214444</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.8884925712455094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.9987258564239163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.9961384408194958</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-0.991379594169097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.7387536882124206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.9459487663151454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.999654868371171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.074426012982024</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.9431569459061853</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.9995065073102076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.9979782515933084</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="76">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.7524776575280898</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="77">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9959614593298591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.8582783582990965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-0.9998044254225231</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9718400900685709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.4170769627915099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-0.2907921589851916</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.07285617624176965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9984008510350195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-0.6857901081080793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.8704390369441553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.3827160493827164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.9999616522468915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9989991980468855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.5403992356389042</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.7767211741928908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.5622366827016994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.9999883285287952</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.973626707933444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.9755282420788474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.4161791700800992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.5689026039745808</v>
+        <v>-0.2844513019872904</v>
       </c>
     </row>
     <row r="98">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5478175800175049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9910745530340197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-0.06007785425414336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.9076739000039253</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.6259553318265931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-0.9998042650720891</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="104">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.4278717637507594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.6256468424701287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-0.9399564546250045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3110,7 +3110,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.5196992315271232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.7672215656997443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-0.3624124592549949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-0.3130942409954773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.8656150294247882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.6050997249953025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.1410432933236314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9308276279584813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.8572822302567471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.4888609460495936</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-0.9145520764753954</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.8807165591032389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-0.7283357523938092</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.8823558184681906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9999990447424241</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="122">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9654057034762822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-0.9790098911351837</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="124">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9472520671325066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8791784379752841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.999980575115454</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="127">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>-0.8521562491288668</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9999769179171916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-0.9992379911772924</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="130">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.7983177376906883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-0.9993735576455562</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.9405578476495899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.7789975709514789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.4592303251043246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.9973518769477923</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8580292786436132</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.04876657087285796</v>
+        <v>-0.02438328543642898</v>
       </c>
     </row>
     <row r="138">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.5640419349612991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-0.9231603022996839</v>
+        <v>-0.461580151149842</v>
       </c>
     </row>
     <row r="140">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.5461791402805682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9850143777744604</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142">
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9772632383151145</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="143">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.509460772849132</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.4573836023780058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-0.9630746418499216</v>
+        <v>-0.4815373209249608</v>
       </c>
     </row>
     <row r="146">
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.5631292938188339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.9782310276667934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3289787189091953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.7763598723100567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9936253447231604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-0.8731901173112513</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.9809422681117363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.6393085313451063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.8947854815600282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.9826746118469687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1466263113062309</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9992987754280585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.9718915896370528</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="159">
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.9155100387107464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.9370629610434376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.6273720340802613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-0.8551821497901078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-0.9983641895352544</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="164">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9473782796921304</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.8962844404932109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.39976710078043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-0.8625130384909592</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -4635,7 +4635,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.2090279214843078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9249147596124487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.003003003003003046</v>
+        <v>-0.001501501501501523</v>
       </c>
     </row>
     <row r="171">
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.9999883756799606</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9997881764748853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-0.05858587331421838</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174">
@@ -4785,7 +4785,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-0.9114997255069823</v>
+        <v>-0.4557498627534912</v>
       </c>
     </row>
     <row r="175">
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9985502786489568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.7625562085595339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.971464351625037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.9934070164328161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-0.6969139949583678</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.9993540973072865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.5066700573289336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.5196992315271232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9995687593984186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5035,7 +5035,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-0.8010171084273436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.9997433239527547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.5488871590999713</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-0.03426311247740887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.9541081124848221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.5608546838178652</v>
+        <v>-0.2804273419089326</v>
       </c>
     </row>
     <row r="190">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.980815523573878</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.2390146248781011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.8569892579209992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.1823067696177574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.9694630734863496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.9259778515386583</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1493365954643828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.964344646320199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.8793009937264682</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="199">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.3262387778732372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.9782210508766589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-0.9993461613229679</v>
+        <v>-0.499673080661484</v>
       </c>
     </row>
     <row r="202">
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.9924771713309635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.0471665946537021</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="204">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.3191684353120321</v>
+        <v>0.159584217656016</v>
       </c>
     </row>
     <row r="205">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.9973467030883436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.4647189831845588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.9463391041467506</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="208">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.9935450683086249</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="209">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.06313359060354462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.9052727706525396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.6948044319056144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.09466076445680738</v>
+        <v>0.04733038222840369</v>
       </c>
     </row>
     <row r="213">
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.9637684217536129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.8771008360297678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.7213668243734996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.8994810327383234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.8929130494882862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.8817658757584952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5910,7 +5910,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.9742102383987461</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="220">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.6360325460651834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-0.9974155252106411</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="222">
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-0.9999999944616715</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="223">
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.3899494450097796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-0.9440177662293756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.9036246579169955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-0.9999454673475889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -6110,7 +6110,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.9981034912248865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.586346782785758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.8849528116711467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.9992772719064507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.7182753575656191</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
